--- a/medicine/Psychotrope/Loi_concernant_la_lutte_contre_le_tabagisme/Loi_concernant_la_lutte_contre_le_tabagisme.xlsx
+++ b/medicine/Psychotrope/Loi_concernant_la_lutte_contre_le_tabagisme/Loi_concernant_la_lutte_contre_le_tabagisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Loi concernant la lutte contre le tabagisme (anciennement la Loi sur le tabac) est une loi québécoise qui réglemente l’usage du tabac dans les lieux publics au Québec. 
-Elle a été adoptée en 1998 et a par la suite été profondément modifiée le 16 juin 2005 et le 26 novembre 2015[1].
-La loi spécifie qu’elle s’applique à toute forme de tabac, « qu’il soit traité ou non et quelles que soient sa forme et sa présentation »[2]. En 2015, la cigarette électronique a été ajoutée à la loi[3].
+Elle a été adoptée en 1998 et a par la suite été profondément modifiée le 16 juin 2005 et le 26 novembre 2015.
+La loi spécifie qu’elle s’applique à toute forme de tabac, « qu’il soit traité ou non et quelles que soient sa forme et sa présentation ». En 2015, la cigarette électronique a été ajoutée à la loi.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Restrictions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Depuis l'entrée en vigueur des modifications (2006), il est défendu de fumer :
 Dans tout lieu de travail qui n’est pas situé à domicile
@@ -555,52 +569,164 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aménagement d’un fumoir
-L'exploitant peut, dans certains cas, aménager un fumoir fermé pour les personnes qu’il héberge. Il  ne doit être utilisé que pour la consommation de tabac et uniquement par les personnes hébergées par l’exploitant.
+          <t>Aménagement d’un fumoir</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'exploitant peut, dans certains cas, aménager un fumoir fermé pour les personnes qu’il héberge. Il  ne doit être utilisé que pour la consommation de tabac et uniquement par les personnes hébergées par l’exploitant.
 Il doit être complètement fermé et doit être muni d'un système de ventilation permettant l'évacuation directe de la fumée vers l'extérieur du bâtiment. La porte du fumoir doit être munie d'un dispositif de fermeture automatique afin que celle-ci se referme après chaque utilisation.
-Chambres pour fumeurs
-L’exploitant d’un lieu peut identifier des chambres où il est permis de fumer, si l’établissement est dans la liste suivante : 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Loi_concernant_la_lutte_contre_le_tabagisme</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Loi_concernant_la_lutte_contre_le_tabagisme</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Droits et devoirs de l’exploitant</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chambres pour fumeurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’exploitant d’un lieu peut identifier des chambres où il est permis de fumer, si l’établissement est dans la liste suivante : 
 établissement de psychiatrie offrant de l’hébergement
 centre d’hébergement de soins de longue durée
 centre de réadaptation
 organisme pour personnes démunies ou en détresse
 établissement d’hébergement touristique
 Le quota de chambres pour fumeurs ne doit pas dépasser 40 %, et les chambres doivent être regroupées.
-Tolérance non tolérée
-L’exploitant d’un lieu ou d’un commerce touché par la loi ne doit pas tolérer que l’on fume dans un endroit où il est interdit de le faire. Le gouvernement peut poursuivre un exploitant en l’accusant d’avoir fait preuve de tolérance. L’exploitant doit alors prouver qu’il n’a pas toléré que l’on fume dans un lieu interdit par la loi.
-Affiches
-L’exploitant d’un lieu ou d’un commerce touché par la loi doit indiquer au moyen d’affiches installées à la vue des personnes qui fréquentent ce lieu ou ce commerce les endroits où il est interdit de fumer. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Loi_concernant_la_lutte_contre_le_tabagisme</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Loi_concernant_la_lutte_contre_le_tabagisme</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Droits et devoirs de l’exploitant</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Tolérance non tolérée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’exploitant d’un lieu ou d’un commerce touché par la loi ne doit pas tolérer que l’on fume dans un endroit où il est interdit de le faire. Le gouvernement peut poursuivre un exploitant en l’accusant d’avoir fait preuve de tolérance. L’exploitant doit alors prouver qu’il n’a pas toléré que l’on fume dans un lieu interdit par la loi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Loi_concernant_la_lutte_contre_le_tabagisme</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Loi_concernant_la_lutte_contre_le_tabagisme</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Droits et devoirs de l’exploitant</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Affiches</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’exploitant d’un lieu ou d’un commerce touché par la loi doit indiquer au moyen d’affiches installées à la vue des personnes qui fréquentent ce lieu ou ce commerce les endroits où il est interdit de fumer. 
 L'exploitant d'un point de vente de tabac doit afficher l'interdiction de vendre du tabac à des mineurs ainsi que la mise en garde sur les effets nocifs du tabac sur la santé. Ces affiches doivent être installées à la vue du public sur ou à proximité de chaque caisse enregistreuse utilisée lors de la vente de tabac.
 Il est interdit d’enlever ou d’altérer ces affiches.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Loi_concernant_la_lutte_contre_le_tabagisme</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Loi_concernant_la_lutte_contre_le_tabagisme</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Loi_concernant_la_lutte_contre_le_tabagisme</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Loi_concernant_la_lutte_contre_le_tabagisme</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Publicité sur le tabac</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Un fabricant ou un distributeur de tabac ne peut :
 En offrir gratuitement ou à l'achat d'un autre produit
@@ -614,31 +740,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Loi_concernant_la_lutte_contre_le_tabagisme</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Loi_concernant_la_lutte_contre_le_tabagisme</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Loi_concernant_la_lutte_contre_le_tabagisme</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Loi_concernant_la_lutte_contre_le_tabagisme</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Inspection et saisie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le gouvernement peut nommer des personnes qui auront la fonction d'inspecteur ou d'analyste afin de faire respecter la loi. Ces personnes, lorsqu'on leur demande, doivent être en mesure de prouver leur qualité d'inspecteur ou d'analyste. Les autorités municipales ont aussi le pouvoir d'en nommer, moyennant d'en aviser le ministère de la Santé.
 Un inspecteur ou un analyste peut visiter à toute heure raisonnable les lieux touchés par la loi. Lors d'une inspection, il peut :
@@ -654,72 +782,76 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Loi_concernant_la_lutte_contre_le_tabagisme</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Loi_concernant_la_lutte_contre_le_tabagisme</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Loi_concernant_la_lutte_contre_le_tabagisme</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Loi_concernant_la_lutte_contre_le_tabagisme</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Répercussions de la loi</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Des chiffres révélés le 20 janvier 2006 affirment que le nombre de Québécois fumant serait passé de 24 % à 20 % depuis un an, soit une diminution de 230 000 fumeurs[réf. nécessaire]. Cette baisse pour le moins spectaculaire porte le taux à un plancher historique jamais atteint au Québec. Toujours selon cette étude, 460 000 personnes auraient tenté de cesser de fumer depuis l'entrée en vigueur de la loi, 87 000 fumeurs seraient âgés de moins de 18 ans et le nombre de fumeurs aurait diminué de pas moins de 50 % depuis 20 ans.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Loi_concernant_la_lutte_contre_le_tabagisme</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Loi_concernant_la_lutte_contre_le_tabagisme</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Loi_concernant_la_lutte_contre_le_tabagisme</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Loi_concernant_la_lutte_contre_le_tabagisme</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Révision de la loi (2015)</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">La ministre déléguée à la Réadaptation, à la Protection de la jeunesse et à la Santé publique, Lucie Charlebois, a déposé à l'Assemblée nationale le 5 mai 2015 le projet de loi 44, ou Loi visant à renforcer la lutte contre le tabagisme. Ce projet de loi a pour but de réviser l'actuelle Loi sur le tabac (qui serait renommée Loi concernant la lutte contre le tabagisme), notamment en voulant :
-Assujettir la cigarette électronique aux mêmes règles que les produits du tabac[3] ;
+Assujettir la cigarette électronique aux mêmes règles que les produits du tabac ;
 Interdire les saveurs dans les produits du tabac ;
 Étendre les zones sans fumée, par exemple en interdisant de fumer dans un rayon de neuf mètres des endroits publics et sur les terrasses ;
-Interdire de fumer dans les automobiles lorsqu'un mineur de moins de 16 ans s’y trouve [4];
-Interdire de fumer dans les aires de jeux, les terrains sportifs [5];
+Interdire de fumer dans les automobiles lorsqu'un mineur de moins de 16 ans s’y trouve ;
+Interdire de fumer dans les aires de jeux, les terrains sportifs ;
 Resserrer les normes applicables au commerce du tabac et imposer de nouvelles amendes aux mineurs et aux adultes.
 Des consultations sont prévues devant la Commission de la santé et des services sociaux de l'Assemblée nationale à la fin de l'été. Plusieurs intervenants, partisans comme détracteurs du projet de loi, y participeront en vue de voir celui-ci modifié en conséquence avant son adoption, prévue à l'automne. (source) 
-La loi visant a renforcer la lutte contre le tabagisme (2015), avec amendements, a reçu sanction le 26 novembre 2015[1].
+La loi visant a renforcer la lutte contre le tabagisme (2015), avec amendements, a reçu sanction le 26 novembre 2015.
 Voici le déroulement des modifications: http://www.msss.gouv.qc.ca/sujets/santepub/tabac/index.php?modifications-a-la-loi
 </t>
         </is>
